--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr10_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr10_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -191,56 +242,56 @@
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.1796875" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="9" max="9" width="15.64453125" customWidth="true"/>
     <col min="10" max="10" width="15.046875" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29062682674815732</v>
+        <v>0.3064405654451452</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28455592545224306</v>
+        <v>0.32469226062618584</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0022337261475687707</v>
+        <v>-0.00050698944662939428</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00041176566362821258</v>
+        <v>0.00097237548473811254</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0030860082531468805</v>
+        <v>0.0020347216139574085</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00029694143929587035</v>
+        <v>0.0012995442769469705</v>
       </c>
       <c r="H3" s="0">
-        <v>5.9221487953924859e-06</v>
+        <v>-4.5325974291702909e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00019721491568413745</v>
+        <v>5.0884605659830918e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00011911790911306452</v>
+        <v>0.00018970288004410696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29319018528432134</v>
+        <v>0.3859999640636716</v>
       </c>
       <c r="C4" s="0">
-        <v>0.029283718812636018</v>
+        <v>0.054285281529846699</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-3.5697112768700709e-05</v>
+        <v>-0.00013138168196054405</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00030475422127124857</v>
+        <v>4.3894327828299385e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.0572641351409281e-06</v>
+        <v>0.00064313492735731351</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0002714564348349352</v>
+        <v>0.0035054232724149609</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00066450943795891477</v>
+        <v>0.0038108277920127984</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0021274339276080578</v>
+        <v>-0.0017731517742818892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28929093760729935</v>
+        <v>0.35218327208548666</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0063336542694255185</v>
+        <v>0.00021901119358309256</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0013730084904291591</v>
+        <v>-0.0017089836847424547</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0037872676012978904</v>
+        <v>0.011142891184164339</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00017486432025087237</v>
+        <v>-0.0038806180877921743</v>
       </c>
       <c r="H5" s="0">
-        <v>3.3277267663769194e-05</v>
+        <v>0.00022629442030615865</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0008179996466684881</v>
+        <v>0.00021290568750464731</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0030554799414862499</v>
+        <v>-0.013707423284965714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.28868334682549052</v>
+        <v>0.20682379242527665</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.019709042133510241</v>
+        <v>-0.035103616285144038</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00010934951019094468</v>
+        <v>-0.0042876547601584424</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00014403656374844628</v>
+        <v>0.00063563662399082101</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.0001044340031931503</v>
+        <v>0.0017327181367797588</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00037324577057876255</v>
+        <v>-0.012599407908500223</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0055422227385061862</v>
+        <v>4.8220546976951439e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.28636690821970945</v>
+        <v>0.26710453403451712</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0037459008168897485</v>
+        <v>-0.031810900913956615</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0043887792640004098</v>
+        <v>0.00020173626424936175</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0061076987049598222</v>
+        <v>0.0097697998697538879</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00021690313241114689</v>
+        <v>0.0031271280418426247</v>
       </c>
       <c r="H7" s="0">
-        <v>-5.6992274943645561e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00014313007055297475</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0017680453229433346</v>
+        <v>0.00099206276626354062</v>
       </c>
     </row>
     <row r="8">
